--- a/SoC_SW-Plan-Traning v1.0.xlsx
+++ b/SoC_SW-Plan-Traning v1.0.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="109">
   <si>
     <t>SoC SW  Training Plan</t>
   </si>
@@ -238,9 +238,6 @@
 + Advantages and disadvantages beetween V-modle &amp; Waterfall Model'</t>
   </si>
   <si>
-    <t>https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/V-Model_Overview.docx</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -254,11 +251,6 @@
 + Device Drivers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/Overview_Linux_Operation_Systems.pptx
-https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/Understanding%20Operating%20Systems%206e%20By%20Ann%20McIver%20McHoes%20and%20Ida%20M.%20Flynn.pdf
-</t>
-  </si>
-  <si>
     <t>https://banviencorp-my.sharepoint.com/:w:/g/personal/hung_bui-viet_banvien_com_vn/EbouaHDfQZpDpoYArqmRgzoB6-DWsPomP_5EtEs90u5LaQ?e=bTN9XX</t>
   </si>
   <si>
@@ -269,10 +261,6 @@
   + Append, Delete, Copy, Paste, Move, Replace, Put, Undo, Change, Search, Select, Command Execute</t>
   </si>
   <si>
-    <t xml:space="preserve">https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/Linux_Basic_Commands_and_VI_Editor.pdf
-</t>
-  </si>
-  <si>
     <t>+ Know main elements of Embedded.
 + Understand the purposes of them.</t>
   </si>
@@ -288,10 +276,6 @@
 + Understand multithread</t>
   </si>
   <si>
-    <t xml:space="preserve">
-https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/ADAS_Training/Document_Refer/Documents/Training Plan/(Zed Shaw’s Hard Way Series) Shaw, Z.A. - Learn C the Hard Way_ Practical Exercises on the Computational Subjects You Keep Avoiding (Like C)-Pearson Education (2015).pdf</t>
-  </si>
-  <si>
     <t>https://banviencorp-my.sharepoint.com/:w:/g/personal/hung_bui-viet_banvien_com_vn/EfvLPZwt_whEuwCmswFdl4wBsxW29_CJb2RwYHtYYd87lQ?e=e7zxEV</t>
   </si>
   <si>
@@ -309,18 +293,10 @@
 + Create test case automation test ..v..v </t>
   </si>
   <si>
-    <t xml:space="preserve">https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/BV_Bash_Basic.pptx
-</t>
-  </si>
-  <si>
     <t>https://banviencorp-my.sharepoint.com/:w:/g/personal/hung_bui-viet_banvien_com_vn/EcE1GhO-EBdFrfGSs4vnbnMB5utPvC5rx1-J-9U3KUndgg?e=654yL2</t>
   </si>
   <si>
     <t>+ Knowledge how to use makefile or cmake + Can write sample makefile  build Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/MMP_ADAS_Training/General/SocSW_Makefile.pptx
-</t>
   </si>
   <si>
     <t>https://banviencorp-my.sharepoint.com/:w:/g/personal/hung_bui-viet_banvien_com_vn/EZ9C5vVj_mNKm5FW9xjUqpcBQzgyXL7DKGsaGf_vcnkNHQ?e=dEFOM2</t>
@@ -356,9 +332,6 @@
     <t>+ Can build/change/run some test apps.</t>
   </si>
   <si>
-    <t>https://svn.banvien.com.vn/svn/LearningDevelopment_Department/trunk/ADAS_Training/Document_Refer/Documents/Training Plan/[ADAS_ST][QNX]_Guideline_work_with_CI_non-CI.docx</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -388,6 +361,51 @@
   </si>
   <si>
     <t>+ Know library OMX video decode/encode</t>
+  </si>
+  <si>
+    <t>https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/V-Model_Overview.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/Overview_Linux_Operation_Systems.pptx
+https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/Understanding%20Operating%20Systems%206e%20By%20Ann%20McIver%20McHoes%20and%20Ida%20M.%20Flynn.pdf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/Linux_Basic_Commands_and_VI_Editor.pdf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/Mastering%20Embedded%20Linux%20Programming%20-%20Second%20Edition.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/BV_Python_Basic.pptx
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/SocSW_Makefile.pptx
+</t>
+  </si>
+  <si>
+    <t>https://github.com/ThinhPTran/PrepareTrainingPlan/blob/main/%5BADAS_ST%5D%5BQNX%5D_Guideline_work_with_CI_non-CI.docx</t>
+  </si>
+  <si>
+    <t>Classified</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Ask RVC for a permission to use on TTP training</t>
+  </si>
+  <si>
+    <t>Source code</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -716,7 +740,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -839,6 +862,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2"/>
@@ -1173,128 +1220,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
@@ -1302,470 +1349,470 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="2:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="52"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="52"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="52"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="52"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="52"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="29">
-        <v>1</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="52"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="29">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="29">
-        <v>1</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="29">
-        <v>1</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="29">
-        <v>1</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="54"/>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="31">
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="54"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="31">
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="54"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="E27" s="28">
+        <v>1</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="54"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="29">
-        <v>1</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="31">
+      <c r="E28" s="28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="31">
+      <c r="E29" s="30">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="31">
-        <v>0</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="31">
+      <c r="E30" s="30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="31">
+      <c r="E31" s="30">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="31">
-        <v>0</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="31">
+      <c r="E32" s="30">
+        <v>0</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="29">
-        <v>1</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="31">
+      <c r="E33" s="28">
+        <v>1</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="31">
-        <v>0</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="31">
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="34" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="31">
+      <c r="E35" s="28">
+        <v>1</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="34" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="31">
+      <c r="E36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="34" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="31">
-        <v>0</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="31">
+      <c r="E37" s="30">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="34" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="31">
-        <v>0</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="31">
+      <c r="E38" s="30">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1792,847 +1839,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="11" max="11" width="50.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="12" max="12" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="145" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="145" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="59"/>
+      <c r="B8" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="59"/>
+      <c r="B9" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
+      <c r="B14" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="E16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="B17" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="B19" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="B22" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="23" t="s">
+      <c r="B23" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="B24" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="45" t="s">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="B26" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="4"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="68"/>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="K5" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="E5" r:id="rId11"/>
+    <hyperlink ref="E9" r:id="rId12"/>
+    <hyperlink ref="E10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/SoC_SW-Plan-Traning v1.0.xlsx
+++ b/SoC_SW-Plan-Traning v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prepare Training Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinh.tran-phuc2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,9 +393,6 @@
     <t>Classified</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>Advanced</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Source code</t>
+  </si>
+  <si>
+    <t>Common</t>
   </si>
 </sst>
 </file>
@@ -811,57 +811,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -886,6 +835,57 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2"/>
@@ -1220,11 +1220,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
@@ -1233,11 +1233,11 @@
       <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42" t="s">
@@ -1246,11 +1246,11 @@
       <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42" t="s">
@@ -1259,11 +1259,11 @@
       <c r="C5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="42" t="s">
@@ -1272,11 +1272,11 @@
       <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="42" t="s">
@@ -1285,11 +1285,11 @@
       <c r="C7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -1298,11 +1298,11 @@
       <c r="C8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="42" t="s">
@@ -1311,11 +1311,11 @@
       <c r="C9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="42" t="s">
@@ -1324,11 +1324,11 @@
       <c r="C10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="42" t="s">
@@ -1337,11 +1337,11 @@
       <c r="C11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
@@ -1349,16 +1349,16 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="49"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" ht="39" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="51"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="26" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="51"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="26" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="51"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="51"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="26" t="s">
         <v>34</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="51"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="26" t="s">
         <v>36</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="51"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="26" t="s">
         <v>37</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="52"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="34" t="s">
         <v>44</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="34" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="34" t="s">
         <v>46</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="35" t="s">
         <v>47</v>
       </c>
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1858,22 +1858,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1914,11 +1914,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>104</v>
+      <c r="B3" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1952,9 +1952,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="63" t="s">
-        <v>104</v>
+      <c r="A4" s="69"/>
+      <c r="B4" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1988,9 +1988,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="63" t="s">
-        <v>104</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2024,9 +2024,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="63" t="s">
-        <v>105</v>
+      <c r="A6" s="69"/>
+      <c r="B6" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2058,9 +2058,9 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="63" t="s">
-        <v>104</v>
+      <c r="A7" s="69"/>
+      <c r="B7" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -2094,9 +2094,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
-      <c r="B8" s="63" t="s">
-        <v>104</v>
+      <c r="A8" s="69"/>
+      <c r="B8" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -2130,9 +2130,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
-      <c r="B9" s="63" t="s">
-        <v>104</v>
+      <c r="A9" s="69"/>
+      <c r="B9" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -2166,9 +2166,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="64" t="s">
-        <v>104</v>
+      <c r="A10" s="70"/>
+      <c r="B10" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -2205,8 +2205,8 @@
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>105</v>
+      <c r="B11" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
@@ -2238,17 +2238,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>105</v>
+      <c r="B12" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="53" t="s">
         <v>82</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -2272,15 +2272,15 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="66" t="s">
-        <v>105</v>
+      <c r="A13" s="71"/>
+      <c r="B13" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="53" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -2304,15 +2304,15 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66" t="s">
-        <v>105</v>
+      <c r="A14" s="71"/>
+      <c r="B14" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="53" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -2336,16 +2336,16 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="66" t="s">
-        <v>105</v>
+      <c r="A15" s="71"/>
+      <c r="B15" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="71" t="s">
-        <v>108</v>
+      <c r="E15" s="54" t="s">
+        <v>107</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>40</v>
@@ -2368,9 +2368,9 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66" t="s">
-        <v>104</v>
+      <c r="A16" s="71"/>
+      <c r="B16" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>47</v>
@@ -2405,8 +2405,8 @@
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>105</v>
+      <c r="B17" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -2439,8 +2439,8 @@
       <c r="A18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>105</v>
+      <c r="B18" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
@@ -2473,8 +2473,8 @@
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>105</v>
+      <c r="B19" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -2507,8 +2507,8 @@
       <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>105</v>
+      <c r="B20" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -2541,14 +2541,14 @@
       <c r="A21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>105</v>
+      <c r="B21" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="52" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -2575,8 +2575,8 @@
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>104</v>
+      <c r="B22" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
@@ -2609,8 +2609,8 @@
       <c r="A23" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>105</v>
+      <c r="B23" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
@@ -2641,14 +2641,14 @@
       <c r="A24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>105</v>
+      <c r="B24" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -2675,8 +2675,8 @@
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>105</v>
+      <c r="B25" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
@@ -2709,8 +2709,8 @@
       <c r="A26" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="67" t="s">
-        <v>105</v>
+      <c r="B26" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
@@ -2741,13 +2741,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
+      <c r="B30" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
-      <c r="B30" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
